--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B69EE5-A471-4D47-B3EF-60080C18CA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6818BA4-1C0F-42A9-BE0B-F5EF4F8BFD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>HUBVC</t>
   </si>
@@ -67,12 +67,27 @@
   </si>
   <si>
     <t>Kar / Zarar (%)</t>
+  </si>
+  <si>
+    <t>Toplam Maliyet</t>
+  </si>
+  <si>
+    <t>LKMNH</t>
+  </si>
+  <si>
+    <t>Net Kar</t>
+  </si>
+  <si>
+    <t>Toplam Fiyat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,11 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,16 +429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:L17"/>
+  <dimension ref="E4:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:12" x14ac:dyDescent="0.3">
@@ -434,9 +457,15 @@
       <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
@@ -445,25 +474,25 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>10.23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>12.44</v>
       </c>
       <c r="I5" s="1">
         <f>((H5-G5)/G5)*100</f>
         <v>21.603128054740946</v>
       </c>
-      <c r="J5" s="1">
-        <f>(F5*G5)</f>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J16" si="0">(F5*G5)</f>
         <v>716.1</v>
       </c>
-      <c r="K5" s="1">
-        <f>(F5*H5)</f>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K16" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <f>(K5-J5)</f>
         <v>154.69999999999993</v>
       </c>
@@ -475,26 +504,26 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>14.11</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>15.55</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I11" si="0">((H6-G6)/G6)*100</f>
+        <f t="shared" ref="I6:I12" si="2">((H6-G6)/G6)*100</f>
         <v>10.205527994330271</v>
       </c>
-      <c r="J6" s="1">
-        <f>(F6*G6)</f>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
         <v>409.19</v>
       </c>
-      <c r="K6" s="1">
-        <f>(F6*H6)</f>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
         <v>450.95000000000005</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L11" si="1">(K6-J6)</f>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:L16" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
@@ -505,26 +534,26 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>12.45</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>14.03</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.690763052208837</v>
       </c>
-      <c r="J7" s="1">
-        <f>(F7*G7)</f>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
         <v>373.5</v>
       </c>
-      <c r="K7" s="1">
-        <f>(F7*H7)</f>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
         <v>420.9</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="1"/>
+      <c r="L7" s="5">
+        <f t="shared" si="3"/>
         <v>47.399999999999977</v>
       </c>
     </row>
@@ -535,26 +564,26 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>0.98</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>1.01</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0612244897959209</v>
       </c>
-      <c r="J8" s="1">
-        <f>(F8*G8)</f>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
         <v>501.76</v>
       </c>
-      <c r="K8" s="1">
-        <f>(F8*H8)</f>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
         <v>517.12</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="1"/>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
         <v>15.360000000000014</v>
       </c>
     </row>
@@ -565,27 +594,27 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.25</v>
       </c>
-      <c r="H9" s="1">
-        <v>1.38</v>
+      <c r="H9" s="3">
+        <v>1.35</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>10.399999999999991</v>
-      </c>
-      <c r="J9" s="1">
-        <f>(F9*G9)</f>
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
         <v>1275</v>
       </c>
-      <c r="K9" s="1">
-        <f>(F9*H9)</f>
-        <v>1407.6</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>132.59999999999991</v>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>1377</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.3">
@@ -595,27 +624,27 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>10.62</v>
       </c>
-      <c r="H10" s="2">
-        <v>11.07</v>
+      <c r="H10" s="4">
+        <v>11.5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2372881355932304</v>
-      </c>
-      <c r="J10" s="2">
-        <f>(F10*G10)</f>
+        <f t="shared" si="2"/>
+        <v>8.2862523540489708</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
         <v>531</v>
       </c>
-      <c r="K10" s="1">
-        <f>(F10*H10)</f>
-        <v>553.5</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.3">
@@ -625,36 +654,152 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6.19</v>
       </c>
-      <c r="H11" s="1">
-        <v>7.98</v>
+      <c r="H11" s="3">
+        <v>9.8000000000000007</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>28.917609046849758</v>
-      </c>
-      <c r="J11" s="2">
-        <f>(F11*G11)</f>
+        <f t="shared" si="2"/>
+        <v>58.319870759289181</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
         <v>309.5</v>
       </c>
-      <c r="K11" s="1">
-        <f>(F11*H11)</f>
-        <v>399</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K17" t="s">
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>490.00000000000006</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>180.50000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.13</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.08</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.97465886939570801</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>256.5</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L17">
-        <f>(L5+L6+L7+L8+L9+L10+L11)</f>
-        <v>503.81999999999988</v>
+      <c r="L18" s="9">
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16)</f>
+        <v>583.22</v>
       </c>
     </row>
   </sheetData>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6818BA4-1C0F-42A9-BE0B-F5EF4F8BFD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A6029-A989-4082-896D-A329A5254FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>HUBVC</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Toplam Fiyat</t>
+  </si>
+  <si>
+    <t>AKENR</t>
+  </si>
+  <si>
+    <t>MEPET</t>
+  </si>
+  <si>
+    <t>GOODY</t>
+  </si>
+  <si>
+    <t>DESPC</t>
   </si>
 </sst>
 </file>
@@ -432,7 +444,7 @@
   <dimension ref="E4:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L5" sqref="L5:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +523,7 @@
         <v>15.55</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I12" si="2">((H6-G6)/G6)*100</f>
+        <f t="shared" ref="I6:I16" si="2">((H6-G6)/G6)*100</f>
         <v>10.205527994330271</v>
       </c>
       <c r="J6" s="3">
@@ -628,11 +640,11 @@
         <v>10.62</v>
       </c>
       <c r="H10" s="4">
-        <v>11.5</v>
+        <v>12.24</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>8.2862523540489708</v>
+        <v>15.254237288135602</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
@@ -640,11 +652,11 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <v>612</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.3">
@@ -658,11 +670,11 @@
         <v>6.19</v>
       </c>
       <c r="H11" s="3">
-        <v>9.8000000000000007</v>
+        <v>9.57</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>58.319870759289181</v>
+        <v>54.604200323101772</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
@@ -670,11 +682,11 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>490.00000000000006</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>180.50000000000006</v>
+        <v>478.5</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="5:12" x14ac:dyDescent="0.3">
@@ -688,11 +700,11 @@
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
-        <v>5.08</v>
+        <v>5.16</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>-0.97465886939570801</v>
+        <v>0.58479532163743175</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
@@ -700,87 +712,131 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444366</v>
+      </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>10.880829015544052</v>
+      </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.28328611898016398</v>
+      </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.94339622641509513</v>
+      </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
@@ -799,7 +855,7 @@
       </c>
       <c r="L18" s="9">
         <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16)</f>
-        <v>583.22</v>
+        <v>628.22</v>
       </c>
     </row>
   </sheetData>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A6029-A989-4082-896D-A329A5254FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8D25F-C318-4E11-9551-47B077E6DF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>HUBVC</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>DESPC</t>
+  </si>
+  <si>
+    <t>ADNAC</t>
+  </si>
+  <si>
+    <t>Hisse Adı</t>
   </si>
 </sst>
 </file>
@@ -150,14 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -441,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:L18"/>
+  <dimension ref="E4:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,10 +458,13 @@
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
+    <row r="4" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,7 +487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +509,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K16" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K18" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -509,7 +517,7 @@
         <v>154.69999999999993</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
@@ -535,11 +543,11 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L16" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L18" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,7 +577,7 @@
         <v>47.399999999999977</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,7 +607,7 @@
         <v>15.360000000000014</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
@@ -629,7 +637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
@@ -659,7 +667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,8 +696,11 @@
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
@@ -700,11 +711,11 @@
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
-        <v>5.16</v>
+        <v>4.92</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>0.58479532163743175</v>
+        <v>-4.0935672514619874</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
@@ -712,14 +723,21 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
+        <v>-10.5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20)</f>
+        <v>593.72</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
@@ -727,29 +745,29 @@
         <v>200</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="H13" s="3">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>4.4444444444444366</v>
+        <v>8.7912087912087866</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
@@ -760,11 +778,11 @@
         <v>1.93</v>
       </c>
       <c r="H14" s="3">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>10.880829015544052</v>
+        <v>2.072538860103629</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
@@ -772,44 +790,44 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
+        <v>98.5</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="4">
-        <v>3.53</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="H15" s="3">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>-0.28328611898016398</v>
+        <v>-1.2875536480686673</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>699</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>690</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
@@ -820,43 +838,134 @@
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.94339622641509513</v>
+        <f>((H16-G16)/G16)*100</f>
+        <v>-2.8301886792452855</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="0"/>
+        <f>(F16*G16)</f>
         <v>212</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I17" s="2">
+        <f>((H17-G17)/G17)*100</f>
+        <v>-3.0303030303030236</v>
+      </c>
+      <c r="J17" s="4">
+        <f>(F17*G17)</f>
+        <v>231</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>224.00000000000003</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.9999999999999716</v>
+      </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="9">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16)</f>
-        <v>628.22</v>
-      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="I18" s="1">
+        <f>((H18-G18)/G18)*100</f>
+        <v>-0.72289156626506612</v>
+      </c>
+      <c r="J18" s="4">
+        <f>(F18*G18)</f>
+        <v>415.00000000000006</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.0000000000000568</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8D25F-C318-4E11-9551-47B077E6DF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6997111-2C8D-4687-9006-A1E841E2F66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>HUBVC</t>
   </si>
@@ -97,14 +97,18 @@
   </si>
   <si>
     <t>Hisse Adı</t>
+  </si>
+  <si>
+    <t>BJKAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₺&quot;* #,##0.000_-;\-&quot;₺&quot;* #,##0.000_-;_-&quot;₺&quot;* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -156,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -166,6 +170,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,11 +455,13 @@
   <dimension ref="E4:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
@@ -494,7 +502,7 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>10.23</v>
       </c>
       <c r="H5" s="3">
@@ -505,11 +513,11 @@
         <v>21.603128054740946</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J16" si="0">(F5*G5)</f>
+        <f t="shared" ref="J5:J15" si="0">(F5*G5)</f>
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K18" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K19" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -524,14 +532,14 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>14.11</v>
       </c>
       <c r="H6" s="3">
         <v>15.55</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I16" si="2">((H6-G6)/G6)*100</f>
+        <f t="shared" ref="I6:I15" si="2">((H6-G6)/G6)*100</f>
         <v>10.205527994330271</v>
       </c>
       <c r="J6" s="3">
@@ -543,7 +551,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L18" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L19" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
@@ -554,7 +562,7 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>12.45</v>
       </c>
       <c r="H7" s="3">
@@ -584,7 +592,7 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.98</v>
       </c>
       <c r="H8" s="3">
@@ -614,7 +622,7 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>1.25</v>
       </c>
       <c r="H9" s="3">
@@ -644,7 +652,7 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>10.62</v>
       </c>
       <c r="H10" s="4">
@@ -674,7 +682,7 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>6.19</v>
       </c>
       <c r="H11" s="3">
@@ -707,15 +715,15 @@
       <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
-        <v>4.92</v>
+        <v>5.13</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>-4.0935672514619874</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
@@ -723,18 +731,18 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="3"/>
-        <v>-10.5</v>
+        <v>256.5</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="8">
         <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20)</f>
-        <v>593.72</v>
+        <v>635.22</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -744,7 +752,7 @@
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>0.91</v>
       </c>
       <c r="H13" s="3">
@@ -774,7 +782,7 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>1.93</v>
       </c>
       <c r="H14" s="3">
@@ -804,15 +812,15 @@
       <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>3.4950000000000001</v>
       </c>
       <c r="H15" s="3">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>-1.2875536480686673</v>
+        <v>1.2875536480686673</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
@@ -820,11 +828,11 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="3"/>
-        <v>-9</v>
+        <v>708</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.3">
@@ -834,15 +842,15 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="I16" s="1">
         <f>((H16-G16)/G16)*100</f>
-        <v>-2.8301886792452855</v>
+        <v>-1.4150943396226532</v>
       </c>
       <c r="J16" s="4">
         <f>(F16*G16)</f>
@@ -850,11 +858,11 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
@@ -862,29 +870,29 @@
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <v>100</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2.31</v>
+        <v>500</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="I17" s="2">
         <f>((H17-G17)/G17)*100</f>
-        <v>-3.0303030303030236</v>
+        <v>0.58187863674147089</v>
       </c>
       <c r="J17" s="4">
         <f>(F17*G17)</f>
-        <v>231</v>
+        <v>1203</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>224.00000000000003</v>
+        <v>1210</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>-6.9999999999999716</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -894,15 +902,15 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <v>4.1500000000000004</v>
       </c>
       <c r="H18" s="3">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="I18" s="1">
         <f>((H18-G18)/G18)*100</f>
-        <v>-0.72289156626506612</v>
+        <v>0.72289156626504469</v>
       </c>
       <c r="J18" s="4">
         <f>(F18*G18)</f>
@@ -910,27 +918,47 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>-3.0000000000000568</v>
+        <v>2.9999999999999432</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="I19" s="1">
+        <f>((H19-G19)/G19)*100</f>
+        <v>-3.5087719298245648</v>
+      </c>
+      <c r="J19" s="4">
+        <f>(F19*G19)</f>
+        <v>285</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
       <c r="J20" s="4"/>
@@ -940,7 +968,7 @@
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
       <c r="J21" s="4"/>
@@ -950,7 +978,7 @@
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
       <c r="J22" s="4"/>
@@ -960,7 +988,7 @@
     <row r="23" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -969,5 +997,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6997111-2C8D-4687-9006-A1E841E2F66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2787FCF-ED34-48B1-9F61-CF7F8F74CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>HUBVC</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>BJKAS</t>
+  </si>
+  <si>
+    <t>SISE</t>
   </si>
 </sst>
 </file>
@@ -455,7 +459,7 @@
   <dimension ref="E4:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +521,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K19" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K20" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -551,7 +555,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L19" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L20" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
@@ -742,7 +746,7 @@
       </c>
       <c r="Q12" s="8">
         <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20)</f>
-        <v>635.22</v>
+        <v>547.72</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -846,11 +850,11 @@
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
-        <v>4.18</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I16" s="1">
-        <f>((H16-G16)/G16)*100</f>
-        <v>-1.4150943396226532</v>
+        <f t="shared" ref="I16:I21" si="4">((H16-G16)/G16)*100</f>
+        <v>1.6509433962264008</v>
       </c>
       <c r="J16" s="4">
         <f>(F16*G16)</f>
@@ -858,11 +862,11 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>215.49999999999997</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>3.4999999999999716</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
@@ -876,11 +880,11 @@
         <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>2.42</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I17" s="2">
-        <f>((H17-G17)/G17)*100</f>
-        <v>0.58187863674147089</v>
+        <f t="shared" si="4"/>
+        <v>-6.8994181213632544</v>
       </c>
       <c r="J17" s="4">
         <f>(F17*G17)</f>
@@ -888,11 +892,11 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1120</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -906,11 +910,11 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H18" s="3">
-        <v>4.18</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I18" s="1">
-        <f>((H18-G18)/G18)*100</f>
-        <v>0.72289156626504469</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f>(F18*G18)</f>
@@ -918,11 +922,11 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
-        <v>418</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999432</v>
+        <v>415.00000000000006</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
@@ -930,47 +934,70 @@
         <v>22</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G19" s="10">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H19" s="3">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I19" s="1">
-        <f>((H19-G19)/G19)*100</f>
-        <v>-3.5087719298245648</v>
+        <f t="shared" si="4"/>
+        <v>-1.0714285714285645</v>
       </c>
       <c r="J19" s="4">
         <f>(F19*G19)</f>
-        <v>285</v>
+        <v>840</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>831</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>200</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5.13</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.19493177387913815</v>
+      </c>
+      <c r="J20" s="4">
+        <f>(F20*G20)</f>
+        <v>1026</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="10"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2787FCF-ED34-48B1-9F61-CF7F8F74CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E15CFD-B8B7-43AF-AD0F-1B134D59964F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>HUBVC</t>
   </si>
@@ -104,15 +103,29 @@
   </si>
   <si>
     <t>SISE</t>
+  </si>
+  <si>
+    <t>AKSEN</t>
+  </si>
+  <si>
+    <t>TEKTU</t>
+  </si>
+  <si>
+    <t>YATAS</t>
+  </si>
+  <si>
+    <t>YYAPI</t>
+  </si>
+  <si>
+    <t>ZOREN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;₺&quot;* #,##0.000_-;\-&quot;₺&quot;* #,##0.000_-;_-&quot;₺&quot;* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -174,8 +187,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Q23"/>
+  <dimension ref="E4:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +517,7 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <v>10.23</v>
       </c>
       <c r="H5" s="3">
@@ -521,7 +532,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K20" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K28" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -536,7 +547,7 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="3">
         <v>14.11</v>
       </c>
       <c r="H6" s="3">
@@ -555,7 +566,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L20" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L28" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
@@ -566,7 +577,7 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>12.45</v>
       </c>
       <c r="H7" s="3">
@@ -596,7 +607,7 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <v>0.98</v>
       </c>
       <c r="H8" s="3">
@@ -626,7 +637,7 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>1.25</v>
       </c>
       <c r="H9" s="3">
@@ -656,7 +667,7 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>10.62</v>
       </c>
       <c r="H10" s="4">
@@ -686,7 +697,7 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="4">
         <v>6.19</v>
       </c>
       <c r="H11" s="3">
@@ -719,7 +730,7 @@
       <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="4">
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
@@ -745,8 +756,8 @@
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20)</f>
-        <v>547.72</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25)</f>
+        <v>595.22</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -756,7 +767,7 @@
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>0.91</v>
       </c>
       <c r="H13" s="3">
@@ -786,7 +797,7 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <v>1.93</v>
       </c>
       <c r="H14" s="3">
@@ -816,7 +827,7 @@
       <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>3.4950000000000001</v>
       </c>
       <c r="H15" s="3">
@@ -846,27 +857,27 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
-        <v>4.3099999999999996</v>
+        <v>4.34</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I21" si="4">((H16-G16)/G16)*100</f>
-        <v>1.6509433962264008</v>
+        <f t="shared" ref="I16:I28" si="4">((H16-G16)/G16)*100</f>
+        <v>2.3584905660377276</v>
       </c>
       <c r="J16" s="4">
-        <f>(F16*G16)</f>
+        <f t="shared" ref="J16:J22" si="5">(F16*G16)</f>
         <v>212</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>215.49999999999997</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4999999999999716</v>
+        <v>217</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
@@ -876,27 +887,27 @@
       <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="4">
         <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>-6.8994181213632544</v>
+        <v>-7.7306733167082271</v>
       </c>
       <c r="J17" s="4">
-        <f>(F17*G17)</f>
+        <f t="shared" si="5"/>
         <v>1203</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>-83</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -906,7 +917,7 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <v>4.1500000000000004</v>
       </c>
       <c r="H18" s="3">
@@ -917,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>(F18*G18)</f>
+        <f t="shared" si="5"/>
         <v>415.00000000000006</v>
       </c>
       <c r="K18" s="3">
@@ -936,27 +947,27 @@
       <c r="F19" s="1">
         <v>300</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <v>2.8</v>
       </c>
       <c r="H19" s="3">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>-1.0714285714285645</v>
+        <v>-5.3571428571428541</v>
       </c>
       <c r="J19" s="4">
-        <f>(F19*G19)</f>
+        <f t="shared" si="5"/>
         <v>840</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>-9</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -966,61 +977,244 @@
       <c r="F20" s="1">
         <v>200</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="4">
         <v>5.13</v>
       </c>
       <c r="H20" s="3">
-        <v>5.12</v>
+        <v>5.32</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.19493177387913815</v>
+        <v>3.7037037037037113</v>
       </c>
       <c r="J20" s="4">
-        <f>(F20*G20)</f>
+        <f t="shared" si="5"/>
         <v>1026</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>1064</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1" t="e">
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3854166666666754</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6.73</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1887072808320829</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:J28" si="6">(F23*G23)</f>
+        <v>673</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>681</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7037037037037068</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>6.7073170731707377</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E15CFD-B8B7-43AF-AD0F-1B134D59964F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188C867-7E35-4090-8385-4232ADF884BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>HUBVC</t>
   </si>
@@ -118,14 +118,18 @@
   </si>
   <si>
     <t>ZOREN</t>
+  </si>
+  <si>
+    <t>PETKM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₺&quot;* #,##0.000_-;\-&quot;₺&quot;* #,##0.000_-;_-&quot;₺&quot;* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -177,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,6 +191,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,12 +476,12 @@
   <dimension ref="E4:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
@@ -517,7 +523,7 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>10.23</v>
       </c>
       <c r="H5" s="3">
@@ -547,7 +553,7 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>14.11</v>
       </c>
       <c r="H6" s="3">
@@ -577,7 +583,7 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>12.45</v>
       </c>
       <c r="H7" s="3">
@@ -607,7 +613,7 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.98</v>
       </c>
       <c r="H8" s="3">
@@ -637,7 +643,7 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>1.25</v>
       </c>
       <c r="H9" s="3">
@@ -667,7 +673,7 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>10.62</v>
       </c>
       <c r="H10" s="4">
@@ -697,7 +703,7 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>6.19</v>
       </c>
       <c r="H11" s="3">
@@ -730,7 +736,7 @@
       <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
@@ -757,7 +763,7 @@
       </c>
       <c r="Q12" s="8">
         <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25)</f>
-        <v>595.22</v>
+        <v>665.22</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -767,7 +773,7 @@
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>0.91</v>
       </c>
       <c r="H13" s="3">
@@ -797,7 +803,7 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>1.93</v>
       </c>
       <c r="H14" s="3">
@@ -827,7 +833,7 @@
       <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>3.4950000000000001</v>
       </c>
       <c r="H15" s="3">
@@ -857,7 +863,7 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
@@ -887,15 +893,15 @@
       <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="10">
         <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>2.2200000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>-7.7306733167082271</v>
+        <v>-4.4056525353283593</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
@@ -903,11 +909,11 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>-93</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -917,7 +923,7 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <v>4.1500000000000004</v>
       </c>
       <c r="H18" s="3">
@@ -947,15 +953,15 @@
       <c r="F19" s="1">
         <v>300</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>2.8</v>
       </c>
       <c r="H19" s="3">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>-5.3571428571428541</v>
+        <v>-3.5714285714285587</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
@@ -963,11 +969,11 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>-45</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -977,7 +983,7 @@
       <c r="F20" s="1">
         <v>200</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>5.13</v>
       </c>
       <c r="H20" s="3">
@@ -1007,7 +1013,7 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>3.84</v>
       </c>
       <c r="H21" s="3">
@@ -1037,15 +1043,15 @@
       <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <v>1.21</v>
       </c>
       <c r="H22" s="3">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4793388429752086</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
@@ -1053,11 +1059,11 @@
       </c>
       <c r="K22" s="3">
         <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.3">
@@ -1067,15 +1073,15 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="10">
         <v>6.73</v>
       </c>
       <c r="H23" s="3">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="4"/>
-        <v>1.1887072808320829</v>
+        <v>2.9717682020802267</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" ref="J23:J28" si="6">(F23*G23)</f>
@@ -1083,11 +1089,11 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="1"/>
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.3">
@@ -1097,7 +1103,7 @@
       <c r="F24" s="1">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="9">
         <v>0.54</v>
       </c>
       <c r="H24" s="3">
@@ -1127,7 +1133,7 @@
       <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="9">
         <v>1.64</v>
       </c>
       <c r="H25" s="3">
@@ -1151,31 +1157,39 @@
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="1" t="e">
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1">
+        <v>300</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3.74</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.26737967914437932</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1" t="e">
         <f t="shared" si="4"/>
@@ -1197,7 +1211,7 @@
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1" t="e">
         <f t="shared" si="4"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188C867-7E35-4090-8385-4232ADF884BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541CEA70-6443-4F0C-9285-EC1FAA737592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="E4:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,8 +762,8 @@
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25)</f>
-        <v>665.22</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26)</f>
+        <v>657.22</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -897,11 +897,11 @@
         <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.23</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>-4.4056525353283593</v>
+        <v>-7.3150457190357496</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
@@ -909,11 +909,11 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>1150</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="3"/>
-        <v>-53</v>
+        <v>1115</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>-88</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -957,11 +957,11 @@
         <v>2.8</v>
       </c>
       <c r="H19" s="3">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>-3.5714285714285587</v>
+        <v>-7.5</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
@@ -969,11 +969,11 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -1161,29 +1161,29 @@
         <v>29</v>
       </c>
       <c r="F26" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G26" s="9">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="H26" s="3">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="4"/>
-        <v>0.26737967914437932</v>
+        <v>3.1830238726790481</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="6"/>
-        <v>1122</v>
+        <v>1885</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1125</v>
+        <v>1945</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.3">

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541CEA70-6443-4F0C-9285-EC1FAA737592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5C421-51BD-4B20-82E5-FBEE6D4B0550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>HUBVC</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>PETKM</t>
+  </si>
+  <si>
+    <t>SNGYO</t>
+  </si>
+  <si>
+    <t>TRCAS</t>
+  </si>
+  <si>
+    <t>BRISA</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Q28"/>
+  <dimension ref="E4:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +547,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K28" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K38" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -572,7 +581,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L28" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L38" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
     </row>
@@ -762,8 +771,8 @@
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26)</f>
-        <v>657.22</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28)</f>
+        <v>519.22</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -870,7 +879,7 @@
         <v>4.34</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I28" si="4">((H16-G16)/G16)*100</f>
+        <f t="shared" ref="I16:I38" si="4">((H16-G16)/G16)*100</f>
         <v>2.3584905660377276</v>
       </c>
       <c r="J16" s="4">
@@ -951,29 +960,29 @@
         <v>22</v>
       </c>
       <c r="F19" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G19" s="10">
-        <v>2.8</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="H19" s="3">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>-7.5</v>
+        <v>-12.614259597806207</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>840</v>
+        <v>1094</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>777</v>
+        <v>956</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>-63</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -1084,7 +1093,7 @@
         <v>2.9717682020802267</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:J28" si="6">(F23*G23)</f>
+        <f t="shared" ref="J23:J38" si="6">(F23*G23)</f>
         <v>673</v>
       </c>
       <c r="K23" s="3">
@@ -1167,11 +1176,11 @@
         <v>3.77</v>
       </c>
       <c r="H26" s="3">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="4"/>
-        <v>3.1830238726790481</v>
+        <v>1.8567639257294388</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="6"/>
@@ -1179,53 +1188,305 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1945</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <v>1920</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>500</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.0344827586206762</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1">
+        <v>300</v>
+      </c>
+      <c r="G28" s="9">
+        <v>3.82</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.26178010471203633</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="L28" s="3">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1">
+        <v>300</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36363636363635587</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="6"/>
+        <v>825</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9999999999998863</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10869565217393004</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="6"/>
+        <v>919.99999999999989</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>921.00000000000011</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0000000000002274</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5C421-51BD-4B20-82E5-FBEE6D4B0550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CFAEC-E70E-4929-BFAF-32EE6B7D4060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>HUBVC</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>BRISA</t>
+  </si>
+  <si>
+    <t>KATMR</t>
+  </si>
+  <si>
+    <t>ASELS</t>
+  </si>
+  <si>
+    <t>VAKBN</t>
+  </si>
+  <si>
+    <t>K / Z / N</t>
   </si>
 </sst>
 </file>
@@ -149,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +171,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,6 +226,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +523,9 @@
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:17" x14ac:dyDescent="0.3">
@@ -524,6 +553,9 @@
       <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
@@ -554,6 +586,7 @@
         <f>(K5-J5)</f>
         <v>154.69999999999993</v>
       </c>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -584,6 +617,7 @@
         <f t="shared" ref="L6:L38" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
@@ -614,6 +648,7 @@
         <f t="shared" si="3"/>
         <v>47.399999999999977</v>
       </c>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
@@ -644,6 +679,7 @@
         <f t="shared" si="3"/>
         <v>15.360000000000014</v>
       </c>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
@@ -674,6 +710,7 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
@@ -704,6 +741,7 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
@@ -734,6 +772,7 @@
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
+      <c r="M11" s="11"/>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -767,12 +806,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M12" s="12"/>
       <c r="P12" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28)</f>
-        <v>519.22</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33)</f>
+        <v>363.22000000000014</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -804,6 +844,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
@@ -834,6 +875,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
@@ -864,6 +906,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
@@ -894,8 +937,9 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
@@ -924,8 +968,9 @@
         <f t="shared" si="3"/>
         <v>-88</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
@@ -954,8 +999,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
@@ -966,11 +1012,11 @@
         <v>2.7349999999999999</v>
       </c>
       <c r="H19" s="3">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>-12.614259597806207</v>
+        <v>-14.076782449725769</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
@@ -978,14 +1024,15 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>956</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="3"/>
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="3"/>
+        <v>-154</v>
+      </c>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1014,8 +1061,9 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1044,8 +1092,9 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1074,8 +1123,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1104,8 +1154,9 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1134,8 +1185,9 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1164,8 +1216,9 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1194,8 +1247,9 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1206,11 +1260,11 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="4"/>
-        <v>-6.0344827586206762</v>
+        <v>0</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="6"/>
@@ -1218,14 +1272,15 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="1"/>
-        <v>545</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="3"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1236,11 +1291,11 @@
         <v>3.82</v>
       </c>
       <c r="H28" s="3">
-        <v>3.81</v>
+        <v>3.68</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="4"/>
-        <v>-0.26178010471203633</v>
+        <v>-3.6649214659685785</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="6"/>
@@ -1248,44 +1303,46 @@
       </c>
       <c r="K28" s="3">
         <f t="shared" si="1"/>
-        <v>1143</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+        <v>1104</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="3"/>
+        <v>-42</v>
+      </c>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G29" s="1">
         <v>2.75</v>
       </c>
       <c r="H29" s="1">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="4"/>
-        <v>0.36363636363635587</v>
+        <v>-2.1818181818181839</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="6"/>
-        <v>825</v>
+        <v>1375</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="1"/>
-        <v>827.99999999999989</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="3"/>
-        <v>2.9999999999998863</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+        <v>1345</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1296,11 +1353,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H30" s="1">
-        <v>9.2100000000000009</v>
+        <v>8.69</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="4"/>
-        <v>0.10869565217393004</v>
+        <v>-5.5434782608695627</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="6"/>
@@ -1308,80 +1365,108 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="1"/>
-        <v>921.00000000000011</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0000000000002274</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>869</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="3"/>
+        <v>-50.999999999999886</v>
+      </c>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1">
+        <v>200</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.4745762711864359</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>648</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>22.27</v>
+      </c>
+      <c r="H32" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6735518634934986</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2227</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2242</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>15</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9083969465648956</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1402,8 +1487,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1424,8 +1510,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1446,8 +1533,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1468,8 +1556,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1490,6 +1579,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CFAEC-E70E-4929-BFAF-32EE6B7D4060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98B3CA-FA21-48D4-85C2-39ECB9929145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>HUBVC</t>
   </si>
@@ -148,9 +148,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;₺&quot;* #,##0.000_-;\-&quot;₺&quot;* #,##0.000_-;_-&quot;₺&quot;* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -214,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -224,8 +223,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +561,7 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <v>10.23</v>
       </c>
       <c r="H5" s="3">
@@ -586,7 +583,7 @@
         <f>(K5-J5)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -595,7 +592,7 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="3">
         <v>14.11</v>
       </c>
       <c r="H6" s="3">
@@ -617,7 +614,7 @@
         <f t="shared" ref="L6:L38" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
@@ -626,7 +623,7 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>12.45</v>
       </c>
       <c r="H7" s="3">
@@ -648,7 +645,7 @@
         <f t="shared" si="3"/>
         <v>47.399999999999977</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
@@ -657,7 +654,7 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <v>0.98</v>
       </c>
       <c r="H8" s="3">
@@ -679,7 +676,7 @@
         <f t="shared" si="3"/>
         <v>15.360000000000014</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
@@ -688,7 +685,7 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>1.25</v>
       </c>
       <c r="H9" s="3">
@@ -710,7 +707,7 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
@@ -719,7 +716,7 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>10.62</v>
       </c>
       <c r="H10" s="4">
@@ -741,7 +738,7 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
@@ -750,7 +747,7 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="4">
         <v>6.19</v>
       </c>
       <c r="H11" s="3">
@@ -772,7 +769,7 @@
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="9"/>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -784,7 +781,7 @@
       <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="4">
         <v>5.13</v>
       </c>
       <c r="H12" s="3">
@@ -806,13 +803,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="10"/>
       <c r="P12" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="8">
         <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33)</f>
-        <v>363.22000000000014</v>
+        <v>400.27000000000078</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -822,7 +819,7 @@
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>0.91</v>
       </c>
       <c r="H13" s="3">
@@ -844,7 +841,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
@@ -853,7 +850,7 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <v>1.93</v>
       </c>
       <c r="H14" s="3">
@@ -875,7 +872,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
@@ -884,7 +881,7 @@
       <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>3.4950000000000001</v>
       </c>
       <c r="H15" s="3">
@@ -906,7 +903,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
@@ -915,7 +912,7 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <v>4.24</v>
       </c>
       <c r="H16" s="3">
@@ -937,7 +934,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
@@ -946,7 +943,7 @@
       <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="4">
         <v>2.4060000000000001</v>
       </c>
       <c r="H17" s="3">
@@ -968,7 +965,7 @@
         <f t="shared" si="3"/>
         <v>-88</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
@@ -977,7 +974,7 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <v>4.1500000000000004</v>
       </c>
       <c r="H18" s="3">
@@ -999,7 +996,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
@@ -1008,7 +1005,7 @@
       <c r="F19" s="1">
         <v>400</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <v>2.7349999999999999</v>
       </c>
       <c r="H19" s="3">
@@ -1030,7 +1027,7 @@
         <f t="shared" si="3"/>
         <v>-154</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
@@ -1039,7 +1036,7 @@
       <c r="F20" s="1">
         <v>200</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="4">
         <v>5.13</v>
       </c>
       <c r="H20" s="3">
@@ -1061,7 +1058,7 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
@@ -1070,7 +1067,7 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="4">
         <v>3.84</v>
       </c>
       <c r="H21" s="3">
@@ -1092,7 +1089,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
@@ -1101,7 +1098,7 @@
       <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="4">
         <v>1.21</v>
       </c>
       <c r="H22" s="3">
@@ -1123,7 +1120,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
@@ -1132,7 +1129,7 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="4">
         <v>6.73</v>
       </c>
       <c r="H23" s="3">
@@ -1154,7 +1151,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
@@ -1163,7 +1160,7 @@
       <c r="F24" s="1">
         <v>1000</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="3">
         <v>0.54</v>
       </c>
       <c r="H24" s="3">
@@ -1185,7 +1182,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
@@ -1194,7 +1191,7 @@
       <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="3">
         <v>1.64</v>
       </c>
       <c r="H25" s="3">
@@ -1216,7 +1213,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
@@ -1225,7 +1222,7 @@
       <c r="F26" s="1">
         <v>500</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="3">
         <v>3.77</v>
       </c>
       <c r="H26" s="3">
@@ -1247,7 +1244,7 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
@@ -1256,7 +1253,7 @@
       <c r="F27" s="1">
         <v>500</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="H27" s="3">
@@ -1278,7 +1275,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
@@ -1287,7 +1284,7 @@
       <c r="F28" s="1">
         <v>300</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="3">
         <v>3.82</v>
       </c>
       <c r="H28" s="3">
@@ -1309,7 +1306,7 @@
         <f t="shared" si="3"/>
         <v>-42</v>
       </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
@@ -1318,10 +1315,10 @@
       <c r="F29" s="1">
         <v>500</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>2.75</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>2.69</v>
       </c>
       <c r="I29" s="1">
@@ -1340,7 +1337,7 @@
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
@@ -1349,10 +1346,10 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <v>8.69</v>
       </c>
       <c r="I30" s="1">
@@ -1371,7 +1368,7 @@
         <f t="shared" si="3"/>
         <v>-50.999999999999886</v>
       </c>
-      <c r="M30" s="13"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
@@ -1380,10 +1377,10 @@
       <c r="F31" s="1">
         <v>200</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>3.54</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>3.24</v>
       </c>
       <c r="I31" s="1">
@@ -1402,38 +1399,38 @@
         <f t="shared" si="3"/>
         <v>-60</v>
       </c>
-      <c r="M31" s="13"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="1">
-        <v>100</v>
-      </c>
-      <c r="G32" s="1">
-        <v>22.27</v>
-      </c>
-      <c r="H32" s="1">
-        <v>22.42</v>
+        <v>150</v>
+      </c>
+      <c r="G32" s="3">
+        <v>22.413</v>
+      </c>
+      <c r="H32" s="3">
+        <v>22.76</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="4"/>
-        <v>0.6735518634934986</v>
+        <v>1.5482086289207215</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="6"/>
-        <v>2227</v>
+        <v>3361.95</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>2242</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="M32" s="1"/>
+        <v>3414.0000000000005</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="3"/>
+        <v>52.050000000000637</v>
+      </c>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
@@ -1442,10 +1439,10 @@
       <c r="F33" s="1">
         <v>100</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>5.24</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <v>5.14</v>
       </c>
       <c r="I33" s="1">
@@ -1464,24 +1461,32 @@
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="M33" s="13"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1">
+        <v>150</v>
+      </c>
+      <c r="G34" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H34" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3420</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3420</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="3"/>
@@ -1492,8 +1497,8 @@
     <row r="35" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1515,8 +1520,8 @@
     <row r="36" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1538,8 +1543,8 @@
     <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1561,8 +1566,8 @@
     <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98B3CA-FA21-48D4-85C2-39ECB9929145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516144D1-A9C9-4A48-9FB9-DAB1FD70BB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>HUBVC</t>
   </si>
@@ -142,14 +144,18 @@
   </si>
   <si>
     <t>K / Z / N</t>
+  </si>
+  <si>
+    <t>EKGYO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₺&quot;* #,##0.000_-;\-&quot;₺&quot;* #,##0.000_-;_-&quot;₺&quot;* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -186,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,11 +215,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +243,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Q38"/>
+  <dimension ref="E4:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,10 +584,10 @@
       <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="12">
         <v>10.23</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
         <v>12.44</v>
       </c>
       <c r="I5" s="1">
@@ -576,7 +599,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K38" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K39" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -592,10 +615,10 @@
       <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="12">
         <v>14.11</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
         <v>15.55</v>
       </c>
       <c r="I6" s="1">
@@ -611,7 +634,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L38" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L39" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
       <c r="M6" s="9"/>
@@ -623,10 +646,10 @@
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>12.45</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>14.03</v>
       </c>
       <c r="I7" s="1">
@@ -654,10 +677,10 @@
       <c r="F8" s="1">
         <v>512</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <v>0.98</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <v>1.01</v>
       </c>
       <c r="I8" s="1">
@@ -685,10 +708,10 @@
       <c r="F9" s="2">
         <v>1020</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="13">
         <v>1.25</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="12">
         <v>1.35</v>
       </c>
       <c r="I9" s="1">
@@ -716,10 +739,10 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="13">
         <v>10.62</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="13">
         <v>12.24</v>
       </c>
       <c r="I10" s="1">
@@ -747,10 +770,10 @@
       <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="13">
         <v>6.19</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="12">
         <v>9.57</v>
       </c>
       <c r="I11" s="1">
@@ -781,10 +804,10 @@
       <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="13">
         <v>5.13</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="12">
         <v>5.13</v>
       </c>
       <c r="I12" s="1">
@@ -808,8 +831,8 @@
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33)</f>
-        <v>400.27000000000078</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33+L34+L35+L36+L37)</f>
+        <v>539.87000000000103</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -819,10 +842,10 @@
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="13">
         <v>0.91</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="12">
         <v>0.99</v>
       </c>
       <c r="I13" s="1">
@@ -850,10 +873,10 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="13">
         <v>1.93</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="12">
         <v>1.97</v>
       </c>
       <c r="I14" s="1">
@@ -881,10 +904,10 @@
       <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="13">
         <v>3.4950000000000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="12">
         <v>3.54</v>
       </c>
       <c r="I15" s="1">
@@ -912,14 +935,14 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="13">
         <v>4.24</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="12">
         <v>4.34</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I38" si="4">((H16-G16)/G16)*100</f>
+        <f t="shared" ref="I16:I39" si="4">((H16-G16)/G16)*100</f>
         <v>2.3584905660377276</v>
       </c>
       <c r="J16" s="4">
@@ -943,10 +966,10 @@
       <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="13">
         <v>2.4060000000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="12">
         <v>2.23</v>
       </c>
       <c r="I17" s="2">
@@ -974,10 +997,10 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="13">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="12">
         <v>4.1500000000000004</v>
       </c>
       <c r="I18" s="1">
@@ -1005,10 +1028,10 @@
       <c r="F19" s="1">
         <v>400</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="13">
         <v>2.7349999999999999</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="12">
         <v>2.35</v>
       </c>
       <c r="I19" s="1">
@@ -1036,10 +1059,10 @@
       <c r="F20" s="1">
         <v>200</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="13">
         <v>5.13</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="12">
         <v>5.32</v>
       </c>
       <c r="I20" s="1">
@@ -1067,10 +1090,10 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="13">
         <v>3.84</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="12">
         <v>3.97</v>
       </c>
       <c r="I21" s="1">
@@ -1098,10 +1121,10 @@
       <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="13">
         <v>1.21</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="12">
         <v>1.24</v>
       </c>
       <c r="I22" s="1">
@@ -1129,10 +1152,10 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="13">
         <v>6.73</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="12">
         <v>6.93</v>
       </c>
       <c r="I23" s="1">
@@ -1140,7 +1163,7 @@
         <v>2.9717682020802267</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:J38" si="6">(F23*G23)</f>
+        <f t="shared" ref="J23:J39" si="6">(F23*G23)</f>
         <v>673</v>
       </c>
       <c r="K23" s="3">
@@ -1160,10 +1183,10 @@
       <c r="F24" s="1">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="12">
         <v>0.54</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="12">
         <v>0.56000000000000005</v>
       </c>
       <c r="I24" s="1">
@@ -1191,10 +1214,10 @@
       <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="12">
         <v>1.64</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="12">
         <v>1.75</v>
       </c>
       <c r="I25" s="1">
@@ -1222,10 +1245,10 @@
       <c r="F26" s="1">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="12">
         <v>3.77</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="12">
         <v>3.84</v>
       </c>
       <c r="I26" s="1">
@@ -1253,10 +1276,10 @@
       <c r="F27" s="1">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="12">
         <v>1.1599999999999999</v>
       </c>
       <c r="I27" s="1">
@@ -1284,10 +1307,10 @@
       <c r="F28" s="1">
         <v>300</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="12">
         <v>3.82</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="12">
         <v>3.68</v>
       </c>
       <c r="I28" s="1">
@@ -1315,10 +1338,10 @@
       <c r="F29" s="1">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="12">
         <v>2.75</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="12">
         <v>2.69</v>
       </c>
       <c r="I29" s="1">
@@ -1346,10 +1369,10 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="12">
         <v>8.69</v>
       </c>
       <c r="I30" s="1">
@@ -1377,10 +1400,10 @@
       <c r="F31" s="1">
         <v>200</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="12">
         <v>3.54</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="12">
         <v>3.24</v>
       </c>
       <c r="I31" s="1">
@@ -1408,10 +1431,10 @@
       <c r="F32" s="1">
         <v>150</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="12">
         <v>22.413</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="12">
         <v>22.76</v>
       </c>
       <c r="I32" s="1">
@@ -1439,10 +1462,10 @@
       <c r="F33" s="1">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="12">
         <v>5.24</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="12">
         <v>5.14</v>
       </c>
       <c r="I33" s="1">
@@ -1470,15 +1493,15 @@
       <c r="F34" s="1">
         <v>150</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="12">
         <v>22.8</v>
       </c>
-      <c r="H34" s="3">
-        <v>22.8</v>
+      <c r="H34" s="12">
+        <v>23.26</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0175438596491269</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="6"/>
@@ -1486,105 +1509,162 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
-        <v>3420</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>3489.0000000000005</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="3"/>
+        <v>69.000000000000455</v>
+      </c>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1">
+        <v>200</v>
+      </c>
+      <c r="G35" s="12">
+        <v>4.34</v>
+      </c>
+      <c r="H35" s="12">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1520737327188899</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>877.99999999999989</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9999999999998863</v>
+      </c>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>400</v>
+      </c>
+      <c r="G36" s="12">
+        <v>4.476</v>
+      </c>
+      <c r="H36" s="12">
+        <v>4.62</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2171581769437028</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1790.4</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="1"/>
+        <v>1848</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="3"/>
+        <v>57.599999999999909</v>
+      </c>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1">
+        <v>500</v>
+      </c>
+      <c r="G37" s="12">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="H37" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14727540500736935</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>200</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>-100</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="6"/>
+        <v>808</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
+        <f t="shared" si="3"/>
+        <v>-808</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="14">
+        <v>400</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="6"/>
+        <v>688</v>
+      </c>
+      <c r="K39" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="1"/>
+      <c r="L39" s="17">
+        <f t="shared" si="3"/>
+        <v>-688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516144D1-A9C9-4A48-9FB9-DAB1FD70BB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DAEAFF-8006-4D35-8987-57BCBEB91252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>HUBVC</t>
   </si>
@@ -147,6 +147,36 @@
   </si>
   <si>
     <t>EKGYO</t>
+  </si>
+  <si>
+    <t>HALKB</t>
+  </si>
+  <si>
+    <t>KRDMD</t>
+  </si>
+  <si>
+    <t>CIMSA</t>
+  </si>
+  <si>
+    <t>ISGYO</t>
+  </si>
+  <si>
+    <t>ALBRK</t>
+  </si>
+  <si>
+    <t>HDFGS</t>
+  </si>
+  <si>
+    <t>TTKOM</t>
+  </si>
+  <si>
+    <t>ODAS</t>
+  </si>
+  <si>
+    <t>FENER</t>
+  </si>
+  <si>
+    <t>GSRAY</t>
   </si>
 </sst>
 </file>
@@ -166,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,22 +251,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -245,10 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Q39"/>
+  <dimension ref="E4:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +621,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K39" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K51" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -634,7 +656,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L39" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L51" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
       <c r="M6" s="9"/>
@@ -831,8 +853,8 @@
         <v>10</v>
       </c>
       <c r="Q12" s="8">
-        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33+L34+L35+L36+L37)</f>
-        <v>539.87000000000103</v>
+        <f>(L5+L6+L7+L8+L9+L10+L11+L12+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L27+L28+L29+L30+L31+L32+L33+L34+L35+L36+L37+L38+L39+L40+L41+L42+L43+L44+L45+L46+L47+L48+L49+L50+L51)</f>
+        <v>-560.48999999999876</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.3">
@@ -942,7 +964,7 @@
         <v>4.34</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I39" si="4">((H16-G16)/G16)*100</f>
+        <f t="shared" ref="I16:I51" si="4">((H16-G16)/G16)*100</f>
         <v>2.3584905660377276</v>
       </c>
       <c r="J16" s="4">
@@ -1163,7 +1185,7 @@
         <v>2.9717682020802267</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:J39" si="6">(F23*G23)</f>
+        <f t="shared" ref="J23:J51" si="6">(F23*G23)</f>
         <v>673</v>
       </c>
       <c r="K23" s="3">
@@ -1604,11 +1626,11 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M37" s="1"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
@@ -1620,10 +1642,12 @@
       <c r="G38" s="12">
         <v>4.04</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12">
+        <v>4.22</v>
+      </c>
       <c r="I38" s="1">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>4.4554455445544487</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="6"/>
@@ -1631,40 +1655,416 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>700</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1.704</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.1690140845070451</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="6"/>
+        <v>1192.8</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>1155</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="3"/>
+        <v>-37.799999999999955</v>
+      </c>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1">
+        <v>300</v>
+      </c>
+      <c r="G40" s="12">
+        <v>7.0659999999999998</v>
+      </c>
+      <c r="H40" s="12">
+        <v>6.84</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.1984149448061134</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="6"/>
+        <v>2119.7999999999997</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="3"/>
+        <v>-67.799999999999727</v>
+      </c>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1">
+        <v>300</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2.89</v>
+      </c>
+      <c r="H41" s="12">
+        <v>2.89</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="3"/>
-        <v>-808</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E39" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="14">
-        <v>400</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1.72</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="6"/>
-        <v>688</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="1"/>
+      <c r="J41" s="4">
+        <f t="shared" si="6"/>
+        <v>867</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>867</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="17">
-        <f t="shared" si="3"/>
-        <v>-688</v>
-      </c>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="H42" s="12">
+        <v>9.76</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
+        <v>-5.0583657587548601</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="6"/>
+        <v>1028</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>976</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="3"/>
+        <v>-52</v>
+      </c>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1">
+        <v>600</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="H43" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3157894736842159</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="6"/>
+        <v>1140</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>1212</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1">
+        <v>700</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1.734</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1.54</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="4"/>
+        <v>-11.188004613610147</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="6"/>
+        <v>1213.8</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="3"/>
+        <v>-135.79999999999995</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="12">
+        <v>3.21</v>
+      </c>
+      <c r="H45" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.330218068535824</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="6"/>
+        <v>321</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="3"/>
+        <v>-46</v>
+      </c>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="12">
+        <v>8.58</v>
+      </c>
+      <c r="H46" s="12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.4289044289044375</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>819.99999999999989</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="3"/>
+        <v>-38.000000000000114</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1">
+        <v>500</v>
+      </c>
+      <c r="G47" s="12">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="H47" s="12">
+        <v>4.37</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="4"/>
+        <v>9.16170407695934E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="6"/>
+        <v>2183</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>2185</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+      <c r="G48" s="12">
+        <v>2.33</v>
+      </c>
+      <c r="H48" s="12">
+        <v>2.19</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.0085836909871295</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="12">
+        <v>20.82</v>
+      </c>
+      <c r="H49" s="12">
+        <v>16.25</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="4"/>
+        <v>-21.950048030739673</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="6"/>
+        <v>2082</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>1625</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="3"/>
+        <v>-457</v>
+      </c>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2">
+        <v>200</v>
+      </c>
+      <c r="G50" s="13">
+        <v>3.895</v>
+      </c>
+      <c r="H50" s="13">
+        <v>2.99</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="4"/>
+        <v>-23.234916559691907</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="6"/>
+        <v>779</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="3"/>
+        <v>-181</v>
+      </c>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="2">
+        <v>156</v>
+      </c>
+      <c r="G51" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="H51" s="13">
+        <v>3.12</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="4"/>
+        <v>-27.10280373831776</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="6"/>
+        <v>667.68000000000006</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>486.72</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" si="3"/>
+        <v>-180.96000000000004</v>
+      </c>
+      <c r="M51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DAEAFF-8006-4D35-8987-57BCBEB91252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BB5D2-A38F-4154-9BFF-17A70FAAD3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>HUBVC</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>GSRAY</t>
+  </si>
+  <si>
+    <t>KOZAL</t>
+  </si>
+  <si>
+    <t>ALGYO</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:Q51"/>
+  <dimension ref="E4:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +627,7 @@
         <v>716.1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K51" si="1">(F5*H5)</f>
+        <f t="shared" ref="K5:K55" si="1">(F5*H5)</f>
         <v>870.8</v>
       </c>
       <c r="L5" s="5">
@@ -656,7 +662,7 @@
         <v>450.95000000000005</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L51" si="3">(K6-J6)</f>
+        <f t="shared" ref="L6:L55" si="3">(K6-J6)</f>
         <v>41.760000000000048</v>
       </c>
       <c r="M6" s="9"/>
@@ -964,7 +970,7 @@
         <v>4.34</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I51" si="4">((H16-G16)/G16)*100</f>
+        <f t="shared" ref="I16:I55" si="4">((H16-G16)/G16)*100</f>
         <v>2.3584905660377276</v>
       </c>
       <c r="J16" s="4">
@@ -1185,7 +1191,7 @@
         <v>2.9717682020802267</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:J51" si="6">(F23*G23)</f>
+        <f t="shared" ref="J23:J55" si="6">(F23*G23)</f>
         <v>673</v>
       </c>
       <c r="K23" s="3">
@@ -2065,6 +2071,130 @@
         <v>-180.96000000000004</v>
       </c>
       <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20</v>
+      </c>
+      <c r="G52" s="13">
+        <v>85.224999999999994</v>
+      </c>
+      <c r="H52" s="13">
+        <v>83.05</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.5520680551481338</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="6"/>
+        <v>1704.5</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="1"/>
+        <v>1661</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="3"/>
+        <v>-43.5</v>
+      </c>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="2">
+        <v>30</v>
+      </c>
+      <c r="G53" s="13">
+        <v>16.97</v>
+      </c>
+      <c r="H53" s="13">
+        <v>17.02</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29463759575722281</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="6"/>
+        <v>509.09999999999997</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="1"/>
+        <v>510.59999999999997</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="2">
+        <v>500</v>
+      </c>
+      <c r="G54" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1.51</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.9480519480519498</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="6"/>
+        <v>770</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
+      <c r="G55" s="13">
+        <v>3.87</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Yatırım.xlsx
+++ b/Yatırım.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BB5D2-A38F-4154-9BFF-17A70FAAD3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD101586-FB05-4C8B-B1DD-4CCAF667B9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="E4:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,11 +2114,11 @@
         <v>16.97</v>
       </c>
       <c r="H53" s="13">
-        <v>17.02</v>
+        <v>19.18</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="4"/>
-        <v>0.29463759575722281</v>
+        <v>13.022981732469068</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="6"/>
@@ -2126,13 +2126,13 @@
       </c>
       <c r="K53" s="4">
         <f t="shared" si="1"/>
-        <v>510.59999999999997</v>
-      </c>
-      <c r="L53" s="14">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>575.4</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="3"/>
+        <v>66.300000000000011</v>
+      </c>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
